--- a/Experiment_Results.xlsx
+++ b/Experiment_Results.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutao/PycharmProjects/Network_tomography/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{030ADC09-5557-DA4D-9629-12C4DFE65E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255CC1B8-6141-0342-94DF-E955649E6874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47080" yWindow="980" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{364D682F-7B04-A048-A598-7CE26482F535}"/>
+    <workbookView xWindow="45380" yWindow="980" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{364D682F-7B04-A048-A598-7CE26482F535}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="BR50node with 10%- 50% monitor " sheetId="2" r:id="rId2"/>
     <sheet name="fixed_monitor_percentage" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -205,23 +205,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1188,36 +1188,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="6">
         <v>0.1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="6">
         <v>0.2</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="6">
         <v>0.3</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="6">
         <v>0.4</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="6">
         <v>0.5</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1259,27 +1259,27 @@
         <v>0.62600100000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <f>(B3*20+B4*20)/40</f>
         <v>0.53816249999999999</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <f t="shared" ref="C5:F5" si="0">(C3*20+C4*20)/40</f>
         <v>0.58813611499999996</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>0.55653190499999994</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <f t="shared" si="0"/>
         <v>0.57743604999999998</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>0.62113716500000005</v>
       </c>
@@ -1324,33 +1324,33 @@
         <v>5.2322092900000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="8">
         <f>(B7+B8)/2</f>
         <v>4.607487055</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="8">
         <f t="shared" ref="C9:F9" si="1">(C7+C8)/2</f>
         <v>4.237622065</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="8">
         <f t="shared" si="1"/>
         <v>4.8159205549999999</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="8">
         <f t="shared" si="1"/>
         <v>5.0983303499999995</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="8">
         <f t="shared" si="1"/>
         <v>5.2582709550000004</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1434,27 +1434,27 @@
         <v>0.90006266999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="7">
         <f>AVERAGE(B13:B16)</f>
         <v>0.73034250000000001</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="7">
         <f t="shared" ref="C17:F17" si="2">AVERAGE(C13:C16)</f>
         <v>0.78452499999999992</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="7">
         <f t="shared" si="2"/>
         <v>0.82064333249999999</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="7">
         <f t="shared" si="2"/>
         <v>0.83891855250000003</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="7">
         <f t="shared" si="2"/>
         <v>0.9028525850000001</v>
       </c>
@@ -1539,27 +1539,27 @@
         <v>1.68834292</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="8">
         <f t="shared" ref="B24:F24" si="3">AVERAGE(B20:B23)</f>
         <v>3.62672339</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="8">
         <f t="shared" si="3"/>
         <v>2.700724235</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="8">
         <f t="shared" si="3"/>
         <v>2.3684526075000001</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="8">
         <f t="shared" si="3"/>
         <v>2.2514328324999999</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="8">
         <f t="shared" si="3"/>
         <v>1.6761214575000001</v>
       </c>
@@ -1824,20 +1824,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">

--- a/Experiment_Results.xlsx
+++ b/Experiment_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xutao/PycharmProjects/Network_tomography/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255CC1B8-6141-0342-94DF-E955649E6874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66F3634C-1622-514A-8B14-D39CAE074358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45380" yWindow="980" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{364D682F-7B04-A048-A598-7CE26482F535}"/>
+    <workbookView xWindow="7800" yWindow="980" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{364D682F-7B04-A048-A598-7CE26482F535}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="fixed_monitor_percentage" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -958,19 +959,19 @@
         <v>0.67223999999999995</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:F23" si="0">AVERAGE(C2:C22)</f>
+        <f>AVERAGE(C2:C22)</f>
         <v>0.71034114999999998</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D2:D22)</f>
         <v>0.70946154999999989</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E2:E22)</f>
         <v>0.76811569999999996</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F2:F22)</f>
         <v>0.82048329999999992</v>
       </c>
     </row>
@@ -1153,19 +1154,19 @@
         <v>0.63394000000000006</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:F35" si="1">AVERAGE(C25:C34)</f>
+        <f>AVERAGE(C25:C34)</f>
         <v>0.60113110000000003</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D25:D34)</f>
         <v>0.58382369999999995</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E25:E34)</f>
         <v>0.56975730000000002</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(F25:F34)</f>
         <v>0.61602299999999999</v>
       </c>
     </row>
@@ -1268,19 +1269,19 @@
         <v>0.53816249999999999</v>
       </c>
       <c r="C5" s="7">
-        <f t="shared" ref="C5:F5" si="0">(C3*20+C4*20)/40</f>
+        <f>(C3*20+C4*20)/40</f>
         <v>0.58813611499999996</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" si="0"/>
+        <f>(D3*20+D4*20)/40</f>
         <v>0.55653190499999994</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" si="0"/>
+        <f>(E3*20+E4*20)/40</f>
         <v>0.57743604999999998</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="0"/>
+        <f>(F3*20+F4*20)/40</f>
         <v>0.62113716500000005</v>
       </c>
     </row>
@@ -1333,19 +1334,19 @@
         <v>4.607487055</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" ref="C9:F9" si="1">(C7+C8)/2</f>
+        <f>(C7+C8)/2</f>
         <v>4.237622065</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="1"/>
+        <f>(D7+D8)/2</f>
         <v>4.8159205549999999</v>
       </c>
       <c r="E9" s="8">
-        <f t="shared" si="1"/>
+        <f>(E7+E8)/2</f>
         <v>5.0983303499999995</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="1"/>
+        <f>(F7+F8)/2</f>
         <v>5.2582709550000004</v>
       </c>
     </row>
@@ -1443,19 +1444,19 @@
         <v>0.73034250000000001</v>
       </c>
       <c r="C17" s="7">
-        <f t="shared" ref="C17:F17" si="2">AVERAGE(C13:C16)</f>
+        <f>AVERAGE(C13:C16)</f>
         <v>0.78452499999999992</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(D13:D16)</f>
         <v>0.82064333249999999</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(E13:E16)</f>
         <v>0.83891855250000003</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(F13:F16)</f>
         <v>0.9028525850000001</v>
       </c>
     </row>
@@ -1544,23 +1545,23 @@
         <v>6</v>
       </c>
       <c r="B24" s="8">
-        <f t="shared" ref="B24:F24" si="3">AVERAGE(B20:B23)</f>
+        <f>AVERAGE(B20:B23)</f>
         <v>3.62672339</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(C20:C23)</f>
         <v>2.700724235</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(D20:D23)</f>
         <v>2.3684526075000001</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(E20:E23)</f>
         <v>2.2514328324999999</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(F20:F23)</f>
         <v>1.6761214575000001</v>
       </c>
     </row>
@@ -1814,7 +1815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81467EFA-C694-4D44-8B73-934D56799AE2}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
